--- a/wash_P/UGA.xlsx
+++ b/wash_P/UGA.xlsx
@@ -56746,7 +56746,7 @@
         <v>0</v>
       </c>
       <c r="MO18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP18" t="n">
         <v>0</v>
@@ -65428,7 +65428,7 @@
         <v>0</v>
       </c>
       <c r="DO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP21" t="n">
         <v>0</v>
@@ -65506,7 +65506,7 @@
         <v>0</v>
       </c>
       <c r="EO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP21" t="n">
         <v>0</v>
@@ -68607,7 +68607,7 @@
         <v>0</v>
       </c>
       <c r="EF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG22" t="n">
         <v>0</v>
@@ -68616,7 +68616,7 @@
         <v>0</v>
       </c>
       <c r="EI22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ22" t="n">
         <v>0</v>
@@ -74677,7 +74677,7 @@
         <v>0</v>
       </c>
       <c r="BV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW24" t="n">
         <v>0</v>
@@ -77805,7 +77805,7 @@
         <v>0</v>
       </c>
       <c r="BV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW25" t="n">
         <v>0</v>
@@ -87357,7 +87357,7 @@
         <v>0</v>
       </c>
       <c r="DZ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA28" t="n">
         <v>0</v>
@@ -90551,7 +90551,7 @@
         <v>0</v>
       </c>
       <c r="EV29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW29" t="n">
         <v>0</v>
